--- a/BackTest/2019-10-29 BackTest VET.xlsx
+++ b/BackTest/2019-10-29 BackTest VET.xlsx
@@ -486,13 +486,17 @@
         <v>4.546499999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.54</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -527,8 +531,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -562,8 +572,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -597,8 +613,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -632,8 +654,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -667,8 +695,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,8 +736,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -737,8 +777,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -772,8 +818,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -807,8 +859,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -842,8 +900,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -877,8 +941,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -912,8 +982,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -947,8 +1023,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1064,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,8 +1105,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,8 +1146,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1187,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,8 +1228,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1269,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,8 +1351,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1392,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1433,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1332,8 +1474,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1367,8 +1515,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1402,8 +1556,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1437,8 +1597,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1472,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1507,8 +1679,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1542,8 +1720,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1761,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1612,8 +1802,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1647,8 +1843,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1682,8 +1884,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1717,8 +1925,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1752,8 +1966,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1787,8 +2007,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1822,8 +2048,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1857,8 +2089,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +2130,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1927,8 +2171,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +2212,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2253,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2294,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2335,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2102,8 +2376,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2417,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,8 +2458,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2207,8 +2499,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2242,8 +2540,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2277,8 +2581,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2622,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2663,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2704,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2745,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2786,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2868,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +3032,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +3073,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +3114,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +3155,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +3196,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +3237,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3360,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2971,14 +3395,22 @@
         <v>4.508</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3012,8 +3444,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3485,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3526,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +3561,22 @@
         <v>4.505999999999998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K78" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3146,14 +3604,22 @@
         <v>4.505499999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3653,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3222,8 +3694,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3257,8 +3735,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3776,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3817,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3362,8 +3858,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3397,8 +3899,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3940,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +3975,22 @@
         <v>4.492499999999996</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K88" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3496,14 +4018,22 @@
         <v>4.490999999999996</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3531,14 +4061,22 @@
         <v>4.489499999999996</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K90" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3572,12 +4110,16 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="K91" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+        <v>4.54</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3605,20 +4147,18 @@
         <v>4.486999999999997</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>4.46</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3648,20 +4188,18 @@
         <v>4.485499999999996</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3691,16 +4229,14 @@
         <v>4.483999999999996</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>4.46</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3734,16 +4270,14 @@
         <v>4.482999999999996</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>4.48</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3777,16 +4311,14 @@
         <v>4.481999999999997</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>4.48</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3820,16 +4352,14 @@
         <v>4.479499999999996</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3863,16 +4393,14 @@
         <v>4.476499999999996</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -3906,16 +4434,14 @@
         <v>4.473499999999996</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -3949,16 +4475,14 @@
         <v>4.470499999999996</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -3998,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="K101" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4035,16 +4559,14 @@
         <v>4.465499999999997</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4078,16 +4600,14 @@
         <v>4.462999999999997</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4121,16 +4641,14 @@
         <v>4.459999999999996</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4164,16 +4682,14 @@
         <v>4.456999999999997</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4207,16 +4723,14 @@
         <v>4.454499999999998</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4250,16 +4764,14 @@
         <v>4.452499999999997</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4293,16 +4805,14 @@
         <v>4.450999999999997</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>4.45</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4336,16 +4846,14 @@
         <v>4.448999999999996</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4379,16 +4887,14 @@
         <v>4.448499999999997</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>4.45</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4422,16 +4928,14 @@
         <v>4.450499999999997</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4465,16 +4969,14 @@
         <v>4.452999999999998</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4508,16 +5010,14 @@
         <v>4.454499999999998</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4551,16 +5051,14 @@
         <v>4.456999999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4594,16 +5092,14 @@
         <v>4.458999999999998</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>4.52</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4637,16 +5133,14 @@
         <v>4.461499999999998</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4680,16 +5174,14 @@
         <v>4.465499999999998</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>4.52</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4730,7 +5222,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4771,7 +5263,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4812,7 +5304,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4853,7 +5345,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4894,7 +5386,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4935,7 +5427,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4976,7 +5468,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5017,7 +5509,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5058,7 +5550,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5099,7 +5591,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5140,7 +5632,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5181,7 +5673,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5222,7 +5714,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5263,7 +5755,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5304,7 +5796,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5345,7 +5837,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5386,7 +5878,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5427,7 +5919,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5468,7 +5960,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5509,7 +6001,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5550,7 +6042,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5591,7 +6083,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5632,7 +6124,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5673,7 +6165,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5714,7 +6206,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5755,7 +6247,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5796,7 +6288,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5837,7 +6329,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5878,7 +6370,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5919,7 +6411,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5960,7 +6452,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6001,7 +6493,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6042,7 +6534,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6083,7 +6575,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6124,7 +6616,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6165,7 +6657,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6206,7 +6698,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6247,7 +6739,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6288,7 +6780,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6329,7 +6821,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6370,7 +6862,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6411,7 +6903,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6452,7 +6944,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6493,7 +6985,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6534,7 +7026,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6575,7 +7067,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6616,7 +7108,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6657,7 +7149,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6698,7 +7190,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6739,7 +7231,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6776,19 +7268,19 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>1</v>
+        <v>1.067687224669604</v>
       </c>
     </row>
     <row r="169">
@@ -6817,17 +7309,11 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6858,17 +7344,11 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6902,14 +7382,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6943,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6984,14 +7452,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7025,14 +7487,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7066,14 +7522,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7104,19 +7554,13 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>1.080011185682327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -7145,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -7180,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -7215,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -7285,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -7425,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest VET.xlsx
+++ b/BackTest/2019-10-29 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N373"/>
+  <dimension ref="A1:M373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,18 +5500,19 @@
         <v>87365781.38910002</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>4.48</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4.48</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5539,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +5576,23 @@
         <v>86976740.40130001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>4.44</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6072,18 +5617,23 @@
         <v>86996740.40130001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>4.43</v>
+      </c>
+      <c r="J158" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,22 +5658,23 @@
         <v>86972738.77940001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="J159" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K159" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>4.48</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6148,26 +5699,23 @@
         <v>86997481.1031</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="J160" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K160" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L160" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6192,26 +5740,23 @@
         <v>86997481.1031</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="J161" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K161" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6236,22 +5781,23 @@
         <v>86997481.1031</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="J162" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K162" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>4.48</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6276,26 +5822,23 @@
         <v>86997481.1031</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="J163" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K163" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L163" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6320,26 +5863,23 @@
         <v>86848424.4888</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="J164" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K164" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6364,26 +5904,23 @@
         <v>86849550.61490001</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="J165" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K165" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L165" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6408,26 +5945,23 @@
         <v>86849550.61490001</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="J166" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K166" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6452,26 +5986,23 @@
         <v>86923340.95190001</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="J167" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K167" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6496,26 +6027,23 @@
         <v>86577635.11150001</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="J168" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="K168" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6540,26 +6068,23 @@
         <v>88479354.11150001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="J169" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K169" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L169" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6584,26 +6109,23 @@
         <v>88924473.74080001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J170" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K170" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6628,26 +6150,23 @@
         <v>88884473.74080001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="J171" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K171" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6672,26 +6191,23 @@
         <v>88884473.74080001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J172" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K172" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6716,24 +6232,23 @@
         <v>88884722.86650001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>4.5</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6758,24 +6273,23 @@
         <v>88912155.823</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>4.51</v>
+      </c>
+      <c r="J174" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6800,24 +6314,23 @@
         <v>88912155.823</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L175" t="inlineStr">
+        <v>4.52</v>
+      </c>
+      <c r="J175" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6842,24 +6355,23 @@
         <v>88912155.823</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L176" t="inlineStr">
+        <v>4.52</v>
+      </c>
+      <c r="J176" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6884,24 +6396,23 @@
         <v>88950178.823</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>4.52</v>
+      </c>
+      <c r="J177" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6926,24 +6437,23 @@
         <v>88741626.119</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>4.53</v>
+      </c>
+      <c r="J178" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6968,24 +6478,23 @@
         <v>88741626.119</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L179" t="inlineStr">
+        <v>4.52</v>
+      </c>
+      <c r="J179" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7010,24 +6519,23 @@
         <v>88756786.47140001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>4.52</v>
+      </c>
+      <c r="J180" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7052,24 +6560,23 @@
         <v>88726786.47140001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>4.54</v>
+      </c>
+      <c r="J181" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7096,22 +6603,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7138,22 +6642,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7180,22 +6681,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7222,22 +6720,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7264,22 +6759,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7306,22 +6798,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7348,22 +6837,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7390,22 +6876,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7432,22 +6915,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7474,22 +6954,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7516,22 +6993,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7558,22 +7032,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7600,22 +7071,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7642,22 +7110,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7684,22 +7149,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7724,24 +7186,23 @@
         <v>88472349.23869292</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L197" t="inlineStr">
+        <v>4.49</v>
+      </c>
+      <c r="J197" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7768,22 +7229,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7810,22 +7268,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7850,24 +7305,23 @@
         <v>88475474.18019293</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="J200" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7892,24 +7346,23 @@
         <v>88475474.18019293</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>4.5</v>
+      </c>
+      <c r="J201" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7934,26 +7387,21 @@
         <v>88490701.39249294</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K202" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7978,26 +7426,23 @@
         <v>88489501.39249294</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="J203" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K203" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8022,24 +7467,23 @@
         <v>88004190.40289293</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>4.51</v>
+      </c>
+      <c r="J204" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8064,26 +7508,23 @@
         <v>88004190.40289293</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K205" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8108,24 +7549,23 @@
         <v>87804190.40289293</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>4.5</v>
+      </c>
+      <c r="J206" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8150,26 +7590,23 @@
         <v>87849124.22281395</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="J207" t="n">
         <v>4.48</v>
       </c>
-      <c r="K207" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8194,24 +7631,23 @@
         <v>87869578.76831394</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>4.52</v>
+      </c>
+      <c r="J208" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8236,24 +7672,23 @@
         <v>87859578.76831394</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L209" t="inlineStr">
+        <v>4.53</v>
+      </c>
+      <c r="J209" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8278,26 +7713,23 @@
         <v>87859578.76831394</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="J210" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K210" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>4.48</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8322,24 +7754,23 @@
         <v>87859578.76831394</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L211" t="inlineStr">
+        <v>4.52</v>
+      </c>
+      <c r="J211" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8366,22 +7797,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8406,24 +7834,23 @@
         <v>87859578.76831394</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L213" t="inlineStr">
+        <v>4.52</v>
+      </c>
+      <c r="J213" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8450,22 +7877,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8492,22 +7916,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8534,22 +7955,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8576,22 +7994,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8618,22 +8033,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8660,22 +8072,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8702,22 +8111,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8744,22 +8150,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8786,22 +8189,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8828,22 +8228,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8870,22 +8267,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8912,22 +8306,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8954,22 +8345,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8996,22 +8384,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9038,22 +8423,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9080,22 +8462,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9122,22 +8501,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9164,22 +8540,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9206,22 +8579,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9248,22 +8618,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9290,22 +8657,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9332,96 +8696,99 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="D236" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F236" t="n">
+        <v>106351.61</v>
+      </c>
+      <c r="G236" t="n">
+        <v>86686892.50103028</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F237" t="n">
+        <v>109409.5832</v>
+      </c>
+      <c r="G237" t="n">
+        <v>86796302.08423027</v>
+      </c>
+      <c r="H237" t="n">
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1.087342342342342</v>
-      </c>
-      <c r="N235" t="n">
-        <v>1.049661399548533</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="C236" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="D236" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="E236" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="F236" t="n">
-        <v>106351.61</v>
-      </c>
-      <c r="G236" t="n">
-        <v>86686892.50103028</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="C237" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="D237" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="E237" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="F237" t="n">
-        <v>109409.5832</v>
-      </c>
-      <c r="G237" t="n">
-        <v>86796302.08423027</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1.084285714285714</v>
+      </c>
       <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+        <v>1.047297297297297</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9446,18 +8813,15 @@
         <v>87110636.17005599</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9482,18 +8846,15 @@
         <v>87109063.20225598</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9518,18 +8879,15 @@
         <v>87348174.35225599</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9554,18 +8912,15 @@
         <v>87710380.70675598</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9590,18 +8945,15 @@
         <v>88112959.43145598</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9626,18 +8978,15 @@
         <v>88101418.02555598</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9662,18 +9011,15 @@
         <v>87548602.29035598</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9698,18 +9044,15 @@
         <v>86740288.42425598</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9734,18 +9077,15 @@
         <v>86813757.11865598</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9770,18 +9110,15 @@
         <v>86800546.76085597</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9808,16 +9145,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9844,16 +9178,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9880,16 +9211,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9914,18 +9242,15 @@
         <v>86797205.92635599</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9950,18 +9275,15 @@
         <v>86795256.63535599</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9988,16 +9310,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10024,16 +9343,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10060,16 +9376,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10096,16 +9409,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10132,16 +9442,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10168,16 +9475,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10204,16 +9508,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10240,16 +9541,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10274,18 +9572,15 @@
         <v>87082511.63045599</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10312,16 +9607,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10348,16 +9640,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10384,16 +9673,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10418,18 +9704,15 @@
         <v>86774665.27935599</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10456,16 +9739,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10490,18 +9770,15 @@
         <v>86804665.27935599</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10528,16 +9805,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10564,16 +9838,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10600,16 +9871,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10634,18 +9902,15 @@
         <v>86465287.95845599</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10672,16 +9937,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10708,16 +9970,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10744,16 +10003,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10780,16 +10036,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10816,16 +10069,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10850,18 +10100,15 @@
         <v>87079119.653556</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10886,18 +10133,15 @@
         <v>87079119.653556</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10922,18 +10166,15 @@
         <v>86845119.653556</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10958,18 +10199,15 @@
         <v>86948854.093356</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10996,16 +10234,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11032,16 +10267,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11068,16 +10300,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11104,16 +10333,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11140,16 +10366,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11176,16 +10399,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11212,16 +10432,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11248,16 +10465,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11282,18 +10496,15 @@
         <v>86970312.41263781</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11318,18 +10529,15 @@
         <v>86973206.93913782</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11354,18 +10562,15 @@
         <v>87174609.84363781</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11390,18 +10595,15 @@
         <v>87160998.43903781</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11426,18 +10628,15 @@
         <v>87195737.50383781</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11462,18 +10661,15 @@
         <v>87195798.11413781</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11500,16 +10696,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11534,18 +10727,15 @@
         <v>87270609.52143781</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11570,18 +10760,15 @@
         <v>87363639.88683781</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11606,18 +10793,15 @@
         <v>87363639.88683781</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11642,18 +10826,15 @@
         <v>87290639.88683781</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11678,18 +10859,15 @@
         <v>87301508.32913782</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11714,18 +10892,15 @@
         <v>87272903.20453782</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11752,16 +10927,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11786,18 +10958,15 @@
         <v>87641135.54343782</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11822,18 +10991,15 @@
         <v>87641135.54343782</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11858,18 +11024,15 @@
         <v>87634878.76523782</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11894,18 +11057,15 @@
         <v>87641135.54343782</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11932,16 +11092,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>1</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11968,16 +11125,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>1</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12002,18 +11156,15 @@
         <v>86976596.74403782</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12040,16 +11191,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>1</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12076,16 +11224,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>1</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12112,16 +11257,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>1</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12146,18 +11288,15 @@
         <v>87222511.47843783</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12184,16 +11323,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>1</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12220,16 +11356,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>1</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12256,16 +11389,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>1</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12290,18 +11420,15 @@
         <v>87095913.23953782</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12326,18 +11453,15 @@
         <v>87095913.23953782</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12362,18 +11486,15 @@
         <v>87874649.27183782</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12398,18 +11519,15 @@
         <v>87588509.65653782</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12434,18 +11552,15 @@
         <v>87597988.90873782</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12470,18 +11585,15 @@
         <v>87597988.90873782</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12506,18 +11618,15 @@
         <v>87598685.66983782</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12542,18 +11651,15 @@
         <v>87597958.91603781</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12578,18 +11684,15 @@
         <v>87597995.35323781</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12616,16 +11719,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>1</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12652,16 +11752,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>1</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12686,18 +11783,15 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12722,18 +11816,15 @@
         <v>87602959.01603781</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12760,16 +11851,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>1</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12794,18 +11882,15 @@
         <v>87742104.3203378</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12832,16 +11917,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>1</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12868,16 +11950,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>1</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12904,16 +11983,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>1</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12940,16 +12016,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>1</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12976,16 +12049,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>1</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13012,16 +12082,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>1</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13048,16 +12115,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>1</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13084,16 +12148,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>1</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13120,16 +12181,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>1</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13156,16 +12214,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>1</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13190,18 +12245,15 @@
         <v>86934032.79038809</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13226,18 +12278,15 @@
         <v>86937052.42958809</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13262,18 +12311,15 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13298,18 +12344,15 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13334,18 +12377,15 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13370,18 +12410,15 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13408,16 +12445,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>1</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13444,16 +12478,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>1</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13480,16 +12511,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>1</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13514,18 +12542,15 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13550,18 +12575,15 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13586,18 +12608,15 @@
         <v>87395328.00518808</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13622,18 +12641,15 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13658,18 +12674,15 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13694,18 +12707,15 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13730,18 +12740,15 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13768,16 +12775,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13804,16 +12808,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13840,16 +12841,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13876,16 +12874,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13912,16 +12907,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13948,16 +12940,13 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13984,16 +12973,13 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -14020,16 +13006,13 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -14056,16 +13039,13 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -14092,16 +13072,13 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -14128,16 +13105,13 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -14162,18 +13136,15 @@
         <v>87201612.77398808</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14198,18 +13169,15 @@
         <v>87201752.77398808</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14234,18 +13202,15 @@
         <v>87194172.01178809</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14270,18 +13235,15 @@
         <v>87182581.30898808</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14306,20 +13268,17 @@
         <v>87320795.01308808</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest VET.xlsx
+++ b/BackTest/2019-10-29 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3553,10 +3553,14 @@
         <v>61230879.16060001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.48</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3589,8 +3593,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3632,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -5500,14 +5516,10 @@
         <v>87365781.38910002</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
@@ -5540,342 +5552,312 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F157" t="n">
+        <v>389030.9878</v>
+      </c>
+      <c r="G157" t="n">
+        <v>86976740.40130001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>86996740.40130001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F159" t="n">
+        <v>24001.6219</v>
+      </c>
+      <c r="G159" t="n">
+        <v>86972738.77940001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F160" t="n">
+        <v>24742.3237</v>
+      </c>
+      <c r="G160" t="n">
+        <v>86997481.1031</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J160" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>4.44</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C161" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F161" t="n">
+        <v>50</v>
+      </c>
+      <c r="G161" t="n">
+        <v>86997481.1031</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J161" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6401.8504</v>
+      </c>
+      <c r="G162" t="n">
+        <v>86997481.1031</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J162" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18687.0495</v>
+      </c>
+      <c r="G163" t="n">
+        <v>86997481.1031</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J163" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
         <v>4.43</v>
       </c>
-      <c r="D157" t="n">
+      <c r="C164" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F164" t="n">
+        <v>149056.6143</v>
+      </c>
+      <c r="G164" t="n">
+        <v>86848424.4888</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
         <v>4.44</v>
       </c>
-      <c r="E157" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F157" t="n">
-        <v>389030.9878</v>
-      </c>
-      <c r="G157" t="n">
-        <v>86976740.40130001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
+      <c r="J164" t="n">
         <v>4.44</v>
       </c>
-      <c r="J157" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D158" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E158" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F158" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G158" t="n">
-        <v>86996740.40130001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C159" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D159" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E159" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F159" t="n">
-        <v>24001.6219</v>
-      </c>
-      <c r="G159" t="n">
-        <v>86972738.77940001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C160" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D160" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E160" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F160" t="n">
-        <v>24742.3237</v>
-      </c>
-      <c r="G160" t="n">
-        <v>86997481.1031</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C161" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D161" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E161" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F161" t="n">
-        <v>50</v>
-      </c>
-      <c r="G161" t="n">
-        <v>86997481.1031</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C162" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D162" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E162" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F162" t="n">
-        <v>6401.8504</v>
-      </c>
-      <c r="G162" t="n">
-        <v>86997481.1031</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C163" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D163" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E163" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F163" t="n">
-        <v>18687.0495</v>
-      </c>
-      <c r="G163" t="n">
-        <v>86997481.1031</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C164" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D164" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E164" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F164" t="n">
-        <v>149056.6143</v>
-      </c>
-      <c r="G164" t="n">
-        <v>86848424.4888</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J164" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5904,13 +5886,13 @@
         <v>86849550.61490001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>4.41</v>
       </c>
       <c r="J165" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5945,13 +5927,13 @@
         <v>86849550.61490001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>4.44</v>
       </c>
       <c r="J166" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5986,13 +5968,13 @@
         <v>86923340.95190001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>4.44</v>
       </c>
       <c r="J167" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6027,13 +6009,13 @@
         <v>86577635.11150001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>4.45</v>
       </c>
       <c r="J168" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6068,13 +6050,13 @@
         <v>88479354.11150001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>4.43</v>
       </c>
       <c r="J169" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6109,13 +6091,13 @@
         <v>88924473.74080001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>4.5</v>
       </c>
       <c r="J170" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6150,13 +6132,13 @@
         <v>88884473.74080001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>4.52</v>
       </c>
       <c r="J171" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6191,13 +6173,13 @@
         <v>88884473.74080001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>4.5</v>
       </c>
       <c r="J172" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6232,13 +6214,13 @@
         <v>88884722.86650001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>4.5</v>
       </c>
       <c r="J173" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6273,13 +6255,13 @@
         <v>88912155.823</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>4.51</v>
       </c>
       <c r="J174" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6314,13 +6296,13 @@
         <v>88912155.823</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>4.52</v>
       </c>
       <c r="J175" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6355,13 +6337,13 @@
         <v>88912155.823</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>4.52</v>
       </c>
       <c r="J176" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6396,13 +6378,13 @@
         <v>88950178.823</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>4.52</v>
       </c>
       <c r="J177" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6437,13 +6419,11 @@
         <v>88741626.119</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6478,13 +6458,11 @@
         <v>88741626.119</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6519,13 +6497,11 @@
         <v>88756786.47140001</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6560,13 +6536,11 @@
         <v>88726786.47140001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>4.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6605,7 +6579,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6644,7 +6618,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6683,7 +6657,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6722,7 +6696,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6761,7 +6735,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6800,7 +6774,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6839,7 +6813,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6878,7 +6852,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6917,7 +6891,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6956,7 +6930,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6995,7 +6969,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7034,7 +7008,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7073,7 +7047,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7112,7 +7086,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7151,7 +7125,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7186,13 +7160,11 @@
         <v>88472349.23869292</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>4.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7231,7 +7203,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7270,7 +7242,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7305,13 +7277,11 @@
         <v>88475474.18019293</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>4.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7346,13 +7316,11 @@
         <v>88475474.18019293</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7391,7 +7359,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7426,13 +7394,11 @@
         <v>88489501.39249294</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7467,13 +7433,11 @@
         <v>88004190.40289293</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7508,13 +7472,11 @@
         <v>88004190.40289293</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7549,13 +7511,11 @@
         <v>87804190.40289293</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7590,13 +7550,11 @@
         <v>87849124.22281395</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>4.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7631,13 +7589,11 @@
         <v>87869578.76831394</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7672,13 +7628,11 @@
         <v>87859578.76831394</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7713,13 +7667,11 @@
         <v>87859578.76831394</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7754,13 +7706,11 @@
         <v>87859578.76831394</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7799,7 +7749,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7834,13 +7784,11 @@
         <v>87859578.76831394</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7879,7 +7827,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7918,7 +7866,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7957,7 +7905,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7996,7 +7944,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8035,7 +7983,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8074,7 +8022,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8113,7 +8061,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8152,7 +8100,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8191,7 +8139,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8230,7 +8178,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8269,7 +8217,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8308,7 +8256,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8347,7 +8295,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8386,7 +8334,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8425,7 +8373,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8464,7 +8412,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8503,7 +8451,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8542,7 +8490,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8581,7 +8529,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8620,7 +8568,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8659,7 +8607,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8698,7 +8646,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8737,7 +8685,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8772,419 +8720,491 @@
         <v>86796302.08423027</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F238" t="n">
+        <v>314334.0858257143</v>
+      </c>
+      <c r="G238" t="n">
+        <v>87110636.17005599</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1572.9678</v>
+      </c>
+      <c r="G239" t="n">
+        <v>87109063.20225598</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F240" t="n">
+        <v>239111.15</v>
+      </c>
+      <c r="G240" t="n">
+        <v>87348174.35225599</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F241" t="n">
+        <v>362206.3545</v>
+      </c>
+      <c r="G241" t="n">
+        <v>87710380.70675598</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F242" t="n">
+        <v>402578.7247</v>
+      </c>
+      <c r="G242" t="n">
+        <v>88112959.43145598</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F243" t="n">
+        <v>11541.4059</v>
+      </c>
+      <c r="G243" t="n">
+        <v>88101418.02555598</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F244" t="n">
+        <v>552815.7352</v>
+      </c>
+      <c r="G244" t="n">
+        <v>87548602.29035598</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="F245" t="n">
+        <v>808313.8661</v>
+      </c>
+      <c r="G245" t="n">
+        <v>86740288.42425598</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F246" t="n">
+        <v>73468.69439999999</v>
+      </c>
+      <c r="G246" t="n">
+        <v>86813757.11865598</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="F247" t="n">
+        <v>13210.3578</v>
+      </c>
+      <c r="G247" t="n">
+        <v>86800546.76085597</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F248" t="n">
+        <v>122113.3383</v>
+      </c>
+      <c r="G248" t="n">
+        <v>86922660.09915598</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="F249" t="n">
+        <v>6401.8518</v>
+      </c>
+      <c r="G249" t="n">
+        <v>86916258.24735598</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1.084285714285714</v>
-      </c>
-      <c r="M237" t="n">
-        <v>1.047297297297297</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="C238" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="D238" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="E238" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="F238" t="n">
-        <v>314334.0858257143</v>
-      </c>
-      <c r="G238" t="n">
-        <v>87110636.17005599</v>
-      </c>
-      <c r="H238" t="n">
-        <v>3</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="C239" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="D239" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="E239" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1572.9678</v>
-      </c>
-      <c r="G239" t="n">
-        <v>87109063.20225598</v>
-      </c>
-      <c r="H239" t="n">
-        <v>3</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="C240" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="D240" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="E240" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="F240" t="n">
-        <v>239111.15</v>
-      </c>
-      <c r="G240" t="n">
-        <v>87348174.35225599</v>
-      </c>
-      <c r="H240" t="n">
-        <v>3</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="C241" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="D241" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="E241" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="F241" t="n">
-        <v>362206.3545</v>
-      </c>
-      <c r="G241" t="n">
-        <v>87710380.70675598</v>
-      </c>
-      <c r="H241" t="n">
-        <v>3</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="C242" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="D242" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="E242" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="F242" t="n">
-        <v>402578.7247</v>
-      </c>
-      <c r="G242" t="n">
-        <v>88112959.43145598</v>
-      </c>
-      <c r="H242" t="n">
-        <v>3</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="C243" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="D243" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="E243" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="F243" t="n">
-        <v>11541.4059</v>
-      </c>
-      <c r="G243" t="n">
-        <v>88101418.02555598</v>
-      </c>
-      <c r="H243" t="n">
-        <v>3</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="C244" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="D244" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="E244" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="F244" t="n">
-        <v>552815.7352</v>
-      </c>
-      <c r="G244" t="n">
-        <v>87548602.29035598</v>
-      </c>
-      <c r="H244" t="n">
-        <v>3</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="C245" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="D245" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="E245" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="F245" t="n">
-        <v>808313.8661</v>
-      </c>
-      <c r="G245" t="n">
-        <v>86740288.42425598</v>
-      </c>
-      <c r="H245" t="n">
-        <v>3</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="C246" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="D246" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="E246" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F246" t="n">
-        <v>73468.69439999999</v>
-      </c>
-      <c r="G246" t="n">
-        <v>86813757.11865598</v>
-      </c>
-      <c r="H246" t="n">
-        <v>3</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="C247" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="D247" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="E247" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="F247" t="n">
-        <v>13210.3578</v>
-      </c>
-      <c r="G247" t="n">
-        <v>86800546.76085597</v>
-      </c>
-      <c r="H247" t="n">
-        <v>3</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="C248" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="D248" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="E248" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="F248" t="n">
-        <v>122113.3383</v>
-      </c>
-      <c r="G248" t="n">
-        <v>86922660.09915598</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="C249" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="D249" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="E249" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="F249" t="n">
-        <v>6401.8518</v>
-      </c>
-      <c r="G249" t="n">
-        <v>86916258.24735598</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>1.089594594594595</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1.049661399548533</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9209,7 +9229,7 @@
         <v>86795724.36645599</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9242,7 +9262,7 @@
         <v>86797205.92635599</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9275,7 +9295,7 @@
         <v>86795256.63535599</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9308,7 +9328,7 @@
         <v>86797474.367256</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9341,7 +9361,7 @@
         <v>86791250.300956</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9374,7 +9394,7 @@
         <v>86778192.70745599</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9407,7 +9427,7 @@
         <v>86778192.70745599</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9572,7 +9592,7 @@
         <v>87082511.63045599</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9704,7 +9724,7 @@
         <v>86774665.27935599</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9737,7 +9757,7 @@
         <v>86774665.27935599</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9770,7 +9790,7 @@
         <v>86804665.27935599</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9803,7 +9823,7 @@
         <v>86804665.27935599</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9836,7 +9856,7 @@
         <v>86451200.69485599</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9869,7 +9889,7 @@
         <v>86466028.23805599</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9902,7 +9922,7 @@
         <v>86465287.95845599</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9935,7 +9955,7 @@
         <v>86504051.927156</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9968,7 +9988,7 @@
         <v>86861051.927156</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10001,7 +10021,7 @@
         <v>86850950.008956</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10100,7 +10120,7 @@
         <v>87079119.653556</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10133,7 +10153,7 @@
         <v>87079119.653556</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10166,7 +10186,7 @@
         <v>86845119.653556</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10199,7 +10219,7 @@
         <v>86948854.093356</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10232,7 +10252,7 @@
         <v>86959560.91153781</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10496,7 +10516,7 @@
         <v>86970312.41263781</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10529,7 +10549,7 @@
         <v>86973206.93913782</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10562,7 +10582,7 @@
         <v>87174609.84363781</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10595,7 +10615,7 @@
         <v>87160998.43903781</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10628,7 +10648,7 @@
         <v>87195737.50383781</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10661,7 +10681,7 @@
         <v>87195798.11413781</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10727,7 +10747,7 @@
         <v>87270609.52143781</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10760,7 +10780,7 @@
         <v>87363639.88683781</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10793,7 +10813,7 @@
         <v>87363639.88683781</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10826,7 +10846,7 @@
         <v>87290639.88683781</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10859,7 +10879,7 @@
         <v>87301508.32913782</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10892,7 +10912,7 @@
         <v>87272903.20453782</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10958,7 +10978,7 @@
         <v>87641135.54343782</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10991,7 +11011,7 @@
         <v>87641135.54343782</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11024,7 +11044,7 @@
         <v>87634878.76523782</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11057,7 +11077,7 @@
         <v>87641135.54343782</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11156,7 +11176,7 @@
         <v>86976596.74403782</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11189,7 +11209,7 @@
         <v>87198109.16243783</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11222,7 +11242,7 @@
         <v>87187989.39703782</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11288,7 +11308,7 @@
         <v>87222511.47843783</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11321,7 +11341,7 @@
         <v>87246770.76553783</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11354,7 +11374,7 @@
         <v>87172362.17553782</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11387,7 +11407,7 @@
         <v>87251923.23953782</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11420,7 +11440,7 @@
         <v>87095913.23953782</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11453,7 +11473,7 @@
         <v>87095913.23953782</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11486,7 +11506,7 @@
         <v>87874649.27183782</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11519,7 +11539,7 @@
         <v>87588509.65653782</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11552,7 +11572,7 @@
         <v>87597988.90873782</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11585,7 +11605,7 @@
         <v>87597988.90873782</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11618,7 +11638,7 @@
         <v>87598685.66983782</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11651,7 +11671,7 @@
         <v>87597958.91603781</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11684,7 +11704,7 @@
         <v>87597995.35323781</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11717,7 +11737,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11750,7 +11770,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11783,7 +11803,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11816,7 +11836,7 @@
         <v>87602959.01603781</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11849,7 +11869,7 @@
         <v>87602959.01603781</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11882,7 +11902,7 @@
         <v>87742104.3203378</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11915,7 +11935,7 @@
         <v>87584039.5006378</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11948,7 +11968,7 @@
         <v>87286123.7619378</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11981,7 +12001,7 @@
         <v>87297255.9645378</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12014,7 +12034,7 @@
         <v>86906479.87173779</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12047,7 +12067,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12080,7 +12100,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12113,7 +12133,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12146,7 +12166,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12179,7 +12199,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12212,7 +12232,7 @@
         <v>86946779.64748809</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12245,7 +12265,7 @@
         <v>86934032.79038809</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12278,7 +12298,7 @@
         <v>86937052.42958809</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12311,7 +12331,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12344,7 +12364,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12377,7 +12397,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12410,7 +12430,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12443,7 +12463,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12476,7 +12496,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12509,7 +12529,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12542,7 +12562,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12575,7 +12595,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12608,7 +12628,7 @@
         <v>87395328.00518808</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12641,7 +12661,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12674,7 +12694,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12707,7 +12727,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12740,7 +12760,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12773,7 +12793,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12806,7 +12826,7 @@
         <v>87539518.95268808</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12839,7 +12859,7 @@
         <v>87529518.95268808</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12872,7 +12892,7 @@
         <v>87407230.85368808</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12905,7 +12925,7 @@
         <v>87471250.36338808</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12938,7 +12958,7 @@
         <v>87356307.90868808</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12971,7 +12991,7 @@
         <v>87338748.63178809</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13004,7 +13024,7 @@
         <v>87193942.60858808</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13037,7 +13057,7 @@
         <v>87217971.01178809</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13070,7 +13090,7 @@
         <v>87202011.01178809</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13103,7 +13123,7 @@
         <v>87202111.01178809</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13136,7 +13156,7 @@
         <v>87201612.77398808</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13169,7 +13189,7 @@
         <v>87201752.77398808</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13202,7 +13222,7 @@
         <v>87194172.01178809</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13235,7 +13255,7 @@
         <v>87182581.30898808</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13268,7 +13288,7 @@
         <v>87320795.01308808</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13279,6 +13299,6 @@
       <c r="M373" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest VET.xlsx
+++ b/BackTest/2019-10-29 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>35618920.8326</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>35618920.8326</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.64</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>35647220.29700001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>35647210.29700001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>35525210.29700001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>35525210.29700001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>35496210.29700001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>35496210.29700001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>35440296.4166</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>35440296.4166</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>35288478.7278</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>35120403.7978</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>35537865.77810001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>35537865.77810001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1016,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1055,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1094,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1133,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1172,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1211,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1250,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1289,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1328,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1367,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1406,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1445,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1484,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1523,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1562,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1601,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1640,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1679,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1757,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1796,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1835,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1874,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1913,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1952,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1991,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2030,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2069,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2108,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2147,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2186,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2225,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2303,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2342,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2381,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2420,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2459,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2498,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2537,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2615,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2654,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2693,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2771,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2810,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2849,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2888,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +3005,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3044,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3083,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3122,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3161,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3200,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3239,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3356,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3395,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3473,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3512,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3551,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3590,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3629,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3707,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3746,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3785,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3824,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3863,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3941,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3980,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4019,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4097,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,15 +4133,17 @@
         <v>61230879.16060001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>4.64</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3594,11 +4176,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>4.48</v>
+        <v>4.64</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3633,11 +4215,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>4.48</v>
+        <v>4.64</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3671,8 +4253,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3704,8 +4292,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3737,8 +4331,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3770,8 +4370,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3803,8 +4409,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3836,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3869,8 +4487,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3902,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3935,8 +4565,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3968,8 +4604,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4001,8 +4643,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4034,8 +4682,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4067,8 +4721,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4100,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4133,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4166,8 +4838,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4199,8 +4877,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4232,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4265,8 +4955,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4298,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4331,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4364,8 +5072,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4397,8 +5111,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4430,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4463,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4496,8 +5228,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4529,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4562,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4595,8 +5345,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4628,8 +5384,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4661,8 +5423,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +5462,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4760,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4793,8 +5579,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4826,8 +5618,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4859,8 +5657,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4892,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4925,8 +5735,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4958,8 +5774,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4991,8 +5813,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +5852,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5057,8 +5891,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5090,8 +5930,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5123,8 +5969,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5156,8 +6008,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5189,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5222,8 +6086,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5255,8 +6125,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +6164,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5321,8 +6203,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5354,8 +6242,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5387,8 +6281,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5420,8 +6320,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5453,8 +6359,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5486,8 +6398,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5519,8 +6437,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5552,8 +6476,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5585,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +6554,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5648,15 +6590,17 @@
         <v>86972738.77940001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+        <v>4.64</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5685,17 +6629,15 @@
         <v>86997481.1031</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>4.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5726,17 +6668,15 @@
         <v>86997481.1031</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5767,15 +6707,17 @@
         <v>86997481.1031</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>4.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+        <v>4.64</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5804,17 +6746,15 @@
         <v>86997481.1031</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>4.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -5845,17 +6785,15 @@
         <v>86848424.4888</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>4.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -5886,13 +6824,11 @@
         <v>86849550.61490001</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>4.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5927,13 +6863,11 @@
         <v>86849550.61490001</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5968,13 +6902,11 @@
         <v>86923340.95190001</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>4.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6009,13 +6941,11 @@
         <v>86577635.11150001</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>4.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6050,13 +6980,11 @@
         <v>88479354.11150001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6091,13 +7019,11 @@
         <v>88924473.74080001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6132,13 +7058,11 @@
         <v>88884473.74080001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6173,13 +7097,11 @@
         <v>88884473.74080001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6214,13 +7136,11 @@
         <v>88884722.86650001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6255,13 +7175,11 @@
         <v>88912155.823</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6296,13 +7214,11 @@
         <v>88912155.823</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6337,13 +7253,11 @@
         <v>88912155.823</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6378,13 +7292,11 @@
         <v>88950178.823</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6423,7 +7335,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6462,7 +7374,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6501,7 +7413,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6540,7 +7452,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6579,7 +7491,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6618,7 +7530,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6657,7 +7569,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6696,7 +7608,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6735,7 +7647,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6774,7 +7686,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6813,7 +7725,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6852,7 +7764,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6891,7 +7803,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6930,7 +7842,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6969,7 +7881,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7008,7 +7920,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7047,7 +7959,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7086,7 +7998,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7125,7 +8037,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7164,7 +8076,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7203,7 +8115,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7242,7 +8154,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7281,7 +8193,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7320,7 +8232,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7359,7 +8271,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7398,7 +8310,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7437,7 +8349,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7476,7 +8388,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7515,7 +8427,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7554,7 +8466,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7593,7 +8505,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7632,7 +8544,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7671,7 +8583,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7710,7 +8622,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7749,7 +8661,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7788,7 +8700,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7827,7 +8739,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7866,7 +8778,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7905,7 +8817,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7944,7 +8856,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7983,7 +8895,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8022,7 +8934,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8061,7 +8973,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8100,7 +9012,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8139,7 +9051,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8178,7 +9090,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8217,7 +9129,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8256,7 +9168,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8295,7 +9207,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8334,7 +9246,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8369,21 +9281,23 @@
         <v>89099438.33791395</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>1.055344827586207</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1.002155172413793</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8408,17 +9322,11 @@
         <v>89099229.33791395</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8447,17 +9355,11 @@
         <v>91107390.50061394</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8486,17 +9388,11 @@
         <v>90321876.17614934</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8525,17 +9421,11 @@
         <v>88319972.12783028</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8564,17 +9454,11 @@
         <v>87820655.83443028</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8603,17 +9487,11 @@
         <v>87834382.50103028</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8642,17 +9520,11 @@
         <v>86686892.50103028</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8681,17 +9553,11 @@
         <v>86686892.50103028</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8720,17 +9586,11 @@
         <v>86796302.08423027</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8759,17 +9619,11 @@
         <v>87110636.17005599</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8801,14 +9655,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8840,14 +9688,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8879,14 +9721,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8918,14 +9754,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8957,14 +9787,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8996,14 +9820,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9035,14 +9853,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9074,14 +9886,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9113,14 +9919,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9152,14 +9952,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9188,23 +9982,15 @@
         <v>86916258.24735598</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
-        <v>1.089594594594595</v>
-      </c>
-      <c r="M249" t="n">
-        <v>1.049661399548533</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9229,7 +10015,7 @@
         <v>86795724.36645599</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9262,7 +10048,7 @@
         <v>86797205.92635599</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9295,7 +10081,7 @@
         <v>86795256.63535599</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9328,7 +10114,7 @@
         <v>86797474.367256</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9361,7 +10147,7 @@
         <v>86791250.300956</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9460,7 +10246,7 @@
         <v>86776977.78545599</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9493,7 +10279,7 @@
         <v>86932977.78545599</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9526,7 +10312,7 @@
         <v>86921892.23525599</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9757,7 +10543,7 @@
         <v>86774665.27935599</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9823,7 +10609,7 @@
         <v>86804665.27935599</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9856,7 +10642,7 @@
         <v>86451200.69485599</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9889,7 +10675,7 @@
         <v>86466028.23805599</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9922,7 +10708,7 @@
         <v>86465287.95845599</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9955,7 +10741,7 @@
         <v>86504051.927156</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9988,7 +10774,7 @@
         <v>86861051.927156</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10021,7 +10807,7 @@
         <v>86850950.008956</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10120,7 +10906,7 @@
         <v>87079119.653556</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10153,7 +10939,7 @@
         <v>87079119.653556</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10186,7 +10972,7 @@
         <v>86845119.653556</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10219,7 +11005,7 @@
         <v>86948854.093356</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10252,7 +11038,7 @@
         <v>86959560.91153781</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10516,7 +11302,7 @@
         <v>86970312.41263781</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10549,7 +11335,7 @@
         <v>86973206.93913782</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11209,7 +11995,7 @@
         <v>87198109.16243783</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11242,7 +12028,7 @@
         <v>87187989.39703782</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11308,7 +12094,7 @@
         <v>87222511.47843783</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11341,7 +12127,7 @@
         <v>87246770.76553783</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11374,7 +12160,7 @@
         <v>87172362.17553782</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11407,7 +12193,7 @@
         <v>87251923.23953782</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11440,7 +12226,7 @@
         <v>87095913.23953782</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11473,7 +12259,7 @@
         <v>87095913.23953782</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11506,7 +12292,7 @@
         <v>87874649.27183782</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11539,7 +12325,7 @@
         <v>87588509.65653782</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11572,7 +12358,7 @@
         <v>87597988.90873782</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11605,7 +12391,7 @@
         <v>87597988.90873782</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11638,7 +12424,7 @@
         <v>87598685.66983782</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11671,7 +12457,7 @@
         <v>87597958.91603781</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11704,7 +12490,7 @@
         <v>87597995.35323781</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11737,7 +12523,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11770,7 +12556,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11803,7 +12589,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11836,7 +12622,7 @@
         <v>87602959.01603781</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11869,7 +12655,7 @@
         <v>87602959.01603781</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11902,7 +12688,7 @@
         <v>87742104.3203378</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11935,7 +12721,7 @@
         <v>87584039.5006378</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11968,7 +12754,7 @@
         <v>87286123.7619378</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12001,7 +12787,7 @@
         <v>87297255.9645378</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12034,7 +12820,7 @@
         <v>86906479.87173779</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12067,7 +12853,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12100,7 +12886,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12133,7 +12919,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12166,7 +12952,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12199,7 +12985,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12232,7 +13018,7 @@
         <v>86946779.64748809</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12265,7 +13051,7 @@
         <v>86934032.79038809</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12298,7 +13084,7 @@
         <v>86937052.42958809</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12331,7 +13117,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12364,7 +13150,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12397,7 +13183,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12430,7 +13216,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12463,7 +13249,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12496,7 +13282,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12529,7 +13315,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12562,7 +13348,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12595,7 +13381,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12628,7 +13414,7 @@
         <v>87395328.00518808</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12661,7 +13447,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12694,7 +13480,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12727,7 +13513,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12760,7 +13546,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12793,7 +13579,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12826,7 +13612,7 @@
         <v>87539518.95268808</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12859,7 +13645,7 @@
         <v>87529518.95268808</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12892,7 +13678,7 @@
         <v>87407230.85368808</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12925,7 +13711,7 @@
         <v>87471250.36338808</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12958,7 +13744,7 @@
         <v>87356307.90868808</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12991,7 +13777,7 @@
         <v>87338748.63178809</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13024,7 +13810,7 @@
         <v>87193942.60858808</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13057,7 +13843,7 @@
         <v>87217971.01178809</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13090,7 +13876,7 @@
         <v>87202011.01178809</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13123,7 +13909,7 @@
         <v>87202111.01178809</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13156,7 +13942,7 @@
         <v>87201612.77398808</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13189,7 +13975,7 @@
         <v>87201752.77398808</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13222,7 +14008,7 @@
         <v>87194172.01178809</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13255,7 +14041,7 @@
         <v>87182581.30898808</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13288,7 +14074,7 @@
         <v>87320795.01308808</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13299,6 +14085,6 @@
       <c r="M373" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest VET.xlsx
+++ b/BackTest/2019-10-29 BackTest VET.xlsx
@@ -451,7 +451,7 @@
         <v>35618920.8326</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>35618920.8326</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>35647220.29700001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>35647210.29700001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>35525210.29700001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>35525210.29700001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>35496210.29700001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>35496210.29700001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>35440296.4166</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -813,12 +753,10 @@
       <c r="I11" t="n">
         <v>4.58</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -854,9 +792,7 @@
       <c r="I12" t="n">
         <v>4.58</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -895,9 +831,7 @@
       <c r="I13" t="n">
         <v>4.57</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -936,9 +870,7 @@
       <c r="I14" t="n">
         <v>4.56</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -977,9 +909,7 @@
       <c r="I15" t="n">
         <v>4.57</v>
       </c>
-      <c r="J15" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1013,12 +943,12 @@
         <v>97069550.09690002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>4.64</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1052,12 +982,12 @@
         <v>97069550.09690002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>4.64</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1094,9 +1024,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1133,9 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1172,9 +1098,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1211,9 +1135,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1250,9 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1289,9 +1209,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1328,9 +1246,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1367,9 +1283,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1406,9 +1320,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1445,9 +1357,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1484,9 +1394,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1523,9 +1431,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1562,9 +1468,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1601,9 +1505,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,9 +1542,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1679,9 +1579,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,9 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1757,9 +1653,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1796,9 +1690,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,9 +1727,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1874,9 +1764,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1913,9 +1801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1952,9 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1991,9 +1875,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2030,9 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2069,9 +1949,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2108,9 +1986,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2147,9 +2023,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2186,9 +2060,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2225,9 +2097,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2264,9 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2303,9 +2171,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2342,9 +2208,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2381,9 +2245,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2420,9 +2282,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2459,9 +2319,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,9 +2356,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,9 +2393,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,9 +2430,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2615,9 +2467,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,9 +2504,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,9 +2541,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,9 +2578,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2771,9 +2615,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,9 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2849,9 +2689,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,9 +2726,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,9 +2763,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,9 +2800,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3005,9 +2837,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,9 +2874,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3083,9 +2911,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3122,9 +2948,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,9 +2985,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,9 +3022,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3239,9 +3059,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,9 +3096,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3317,9 +3133,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3356,9 +3170,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3395,9 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,9 +3244,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3473,9 +3281,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,9 +3318,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3551,9 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3590,9 +3392,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3629,9 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3668,9 +3466,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3707,9 +3503,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,9 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3785,9 +3577,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,9 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3863,9 +3651,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3902,9 +3688,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3941,9 +3725,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3980,9 +3762,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,9 +3799,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,9 +3836,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4097,9 +3873,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4136,9 +3910,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4175,9 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4214,9 +3984,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4253,9 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4292,9 +4058,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4331,9 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,9 +4132,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4409,9 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4448,9 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,9 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4526,9 +4280,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4565,9 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4604,9 +4354,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4643,9 +4391,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4682,9 +4428,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,9 +4465,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,9 +4502,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4799,9 +4539,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,9 +4576,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4877,9 +4613,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4916,9 +4650,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4955,9 +4687,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4994,9 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5033,9 +4761,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,9 +4798,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5111,9 +4835,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,9 +4872,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5189,9 +4909,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,9 +4946,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,9 +4983,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5306,9 +5020,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,9 +5057,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,9 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5423,9 +5131,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,9 +5168,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,9 +5205,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,9 +5242,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,9 +5279,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5618,9 +5316,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5657,9 +5353,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5696,9 +5390,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5735,9 +5427,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5774,9 +5464,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,9 +5501,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,9 +5538,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5891,9 +5575,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5930,9 +5612,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5969,9 +5649,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6008,9 +5686,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6047,9 +5723,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6086,9 +5760,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,9 +5797,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6164,9 +5834,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6203,9 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6242,9 +5908,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6281,9 +5945,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6320,9 +5982,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6359,9 +6019,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6398,9 +6056,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,9 +6093,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,9 +6130,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6515,9 +6167,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6554,9 +6204,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6593,9 +6241,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6632,9 +6278,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,9 +6315,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6710,9 +6352,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6749,9 +6389,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6788,9 +6426,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6827,9 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6866,9 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6905,9 +6537,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6944,9 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6983,9 +6611,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,9 +6648,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7061,9 +6685,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7100,9 +6722,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7139,9 +6759,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7178,9 +6796,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,9 +6833,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7256,9 +6870,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,9 +6907,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7334,9 +6944,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7373,9 +6981,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7412,9 +7018,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7451,9 +7055,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7490,9 +7092,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7529,9 +7129,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7568,9 +7166,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7607,9 +7203,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7646,9 +7240,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7685,9 +7277,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7724,9 +7314,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7763,9 +7351,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,9 +7388,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,9 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,9 +7462,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7919,9 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7958,9 +7536,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7997,9 +7573,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8036,9 +7610,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8075,9 +7647,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8114,9 +7684,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8153,9 +7721,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8192,9 +7758,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8231,9 +7795,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8270,9 +7832,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8309,9 +7869,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,9 +7906,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8387,9 +7943,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8426,9 +7980,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8465,9 +8017,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8504,9 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8543,9 +8091,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8582,9 +8128,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8621,9 +8165,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,9 +8202,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,9 +8239,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8738,9 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8777,9 +8313,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8816,9 +8350,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8855,9 +8387,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8894,9 +8424,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,9 +8461,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8972,9 +8498,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9011,9 +8535,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9050,9 +8572,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9089,9 +8609,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9128,9 +8646,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9167,9 +8683,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9206,9 +8720,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9245,9 +8757,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9281,23 +8791,19 @@
         <v>89099438.33791395</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>4.64</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1.055344827586207</v>
-      </c>
-      <c r="M228" t="n">
-        <v>1.002155172413793</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9322,11 +8828,15 @@
         <v>89099229.33791395</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9355,11 +8865,15 @@
         <v>91107390.50061394</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9388,11 +8902,15 @@
         <v>90321876.17614934</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9421,11 +8939,15 @@
         <v>88319972.12783028</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9454,11 +8976,15 @@
         <v>87820655.83443028</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9487,11 +9013,15 @@
         <v>87834382.50103028</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9520,11 +9050,15 @@
         <v>86686892.50103028</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9553,11 +9087,15 @@
         <v>86686892.50103028</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9586,11 +9124,15 @@
         <v>86796302.08423027</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9619,11 +9161,15 @@
         <v>87110636.17005599</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9656,7 +9202,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9689,7 +9239,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9722,7 +9276,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9755,7 +9313,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9788,7 +9350,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9821,7 +9387,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9854,7 +9424,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9887,7 +9461,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9920,7 +9498,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9953,7 +9535,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9986,7 +9572,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10019,7 +9609,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10052,7 +9646,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10085,7 +9683,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10118,7 +9720,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10151,7 +9757,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10180,11 +9790,15 @@
         <v>86778192.70745599</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10213,11 +9827,15 @@
         <v>86778192.70745599</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10246,11 +9864,15 @@
         <v>86776977.78545599</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10279,11 +9901,15 @@
         <v>86932977.78545599</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10312,11 +9938,15 @@
         <v>86921892.23525599</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10349,7 +9979,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10382,7 +10016,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10415,7 +10053,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10448,7 +10090,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10481,7 +10127,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10514,7 +10164,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10547,7 +10201,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10580,7 +10238,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10613,7 +10275,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10646,7 +10312,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10679,7 +10349,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10712,7 +10386,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10745,7 +10423,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10778,7 +10460,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10811,7 +10497,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10844,7 +10534,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10877,7 +10571,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10910,7 +10608,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10943,7 +10645,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10976,7 +10682,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11009,7 +10719,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11042,7 +10756,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11075,7 +10793,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11108,7 +10830,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11141,7 +10867,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11174,7 +10904,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11207,7 +10941,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11240,7 +10978,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11273,7 +11015,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11306,7 +11052,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11339,7 +11089,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11372,7 +11126,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11405,7 +11163,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11438,7 +11200,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11471,7 +11237,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11504,7 +11274,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11537,7 +11311,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11570,7 +11348,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11603,7 +11385,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11636,7 +11422,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11669,7 +11459,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11702,7 +11496,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11735,7 +11533,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11768,7 +11570,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11801,7 +11607,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11834,7 +11644,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11867,7 +11681,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11900,7 +11718,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11933,7 +11755,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11966,7 +11792,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11999,7 +11829,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12032,7 +11866,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12065,7 +11903,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12098,7 +11940,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12131,7 +11977,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12164,7 +12014,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12197,7 +12051,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12230,7 +12088,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12263,7 +12125,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12296,7 +12162,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12329,7 +12199,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12362,7 +12236,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12395,7 +12273,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12428,7 +12310,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12457,14 +12343,16 @@
         <v>87597958.91603781</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
@@ -12490,7 +12378,7 @@
         <v>87597995.35323781</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12523,7 +12411,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12556,7 +12444,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12589,7 +12477,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12655,7 +12543,7 @@
         <v>87602959.01603781</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12688,7 +12576,7 @@
         <v>87742104.3203378</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12721,7 +12609,7 @@
         <v>87584039.5006378</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12754,7 +12642,7 @@
         <v>87286123.7619378</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12787,7 +12675,7 @@
         <v>87297255.9645378</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12820,7 +12708,7 @@
         <v>86906479.87173779</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12853,7 +12741,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12886,7 +12774,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12919,7 +12807,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12952,7 +12840,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12985,7 +12873,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13018,7 +12906,7 @@
         <v>86946779.64748809</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13051,7 +12939,7 @@
         <v>86934032.79038809</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13084,7 +12972,7 @@
         <v>86937052.42958809</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13117,7 +13005,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13150,7 +13038,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13183,7 +13071,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13216,7 +13104,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13249,7 +13137,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13282,7 +13170,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13315,7 +13203,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13348,7 +13236,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13381,7 +13269,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13414,7 +13302,7 @@
         <v>87395328.00518808</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13447,7 +13335,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13480,7 +13368,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13513,7 +13401,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13546,7 +13434,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13579,7 +13467,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13612,7 +13500,7 @@
         <v>87539518.95268808</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13645,7 +13533,7 @@
         <v>87529518.95268808</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13678,7 +13566,7 @@
         <v>87407230.85368808</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13711,7 +13599,7 @@
         <v>87471250.36338808</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13744,7 +13632,7 @@
         <v>87356307.90868808</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13777,7 +13665,7 @@
         <v>87338748.63178809</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13810,7 +13698,7 @@
         <v>87193942.60858808</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13843,7 +13731,7 @@
         <v>87217971.01178809</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13876,7 +13764,7 @@
         <v>87202011.01178809</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13942,7 +13830,7 @@
         <v>87201612.77398808</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
